--- a/Config/Datas/card.xlsx
+++ b/Config/Datas/card.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -116,6 +116,9 @@
     <t>desc</t>
   </si>
   <si>
+    <t>hideInDex</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -192,6 +195,9 @@
   </si>
   <si>
     <t>描述</t>
+  </si>
+  <si>
+    <t>在图鉴中隐藏</t>
   </si>
   <si>
     <t>待命</t>
@@ -1215,10 +1221,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1228,9 +1234,10 @@
     <col min="13" max="13" width="23" customWidth="1"/>
     <col min="16" max="16" width="10.6363636363636" customWidth="1"/>
     <col min="17" max="17" width="11.8181818181818" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1282,176 +1289,188 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q4" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:18">
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1475,13 +1494,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O5">
         <v>51</v>
       </c>
       <c r="Q5" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="R5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:17">
@@ -1489,13 +1511,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1519,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O6">
         <v>2</v>
@@ -1528,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:17">
@@ -1536,13 +1558,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -1566,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O7">
         <v>50</v>
@@ -1575,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:17">
@@ -1583,13 +1605,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1613,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O8">
         <v>50</v>
@@ -1622,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:17">
@@ -1630,13 +1652,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1660,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O9">
         <v>50</v>
@@ -1669,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:17">
@@ -1677,13 +1699,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -1707,13 +1729,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O10">
         <v>50</v>
       </c>
       <c r="Q10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:17">
@@ -1721,13 +1743,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -1751,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O11">
         <v>30</v>
       </c>
       <c r="Q11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:17">
@@ -1765,13 +1787,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1795,13 +1817,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O12">
         <v>20</v>
       </c>
       <c r="Q12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="2:17">
@@ -1809,13 +1831,13 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1839,13 +1861,13 @@
         <v>500</v>
       </c>
       <c r="M13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O13">
         <v>40</v>
       </c>
       <c r="Q13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Datas/card.xlsx
+++ b/Config/Datas/card.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -116,6 +116,9 @@
     <t>desc</t>
   </si>
   <si>
+    <t>value</t>
+  </si>
+  <si>
     <t>hideInDex</t>
   </si>
   <si>
@@ -195,6 +198,9 @@
   </si>
   <si>
     <t>描述</t>
+  </si>
+  <si>
+    <t>数值（仅展示）</t>
   </si>
   <si>
     <t>在图鉴中隐藏</t>
@@ -1221,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1233,11 +1239,11 @@
     <col min="4" max="5" width="16.2727272727273" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
     <col min="16" max="16" width="10.6363636363636" customWidth="1"/>
-    <col min="17" max="17" width="11.8181818181818" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="17" max="17" width="70.2727272727273" customWidth="1"/>
+    <col min="18" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1292,185 +1298,197 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="S3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R4" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="S4" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:19">
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1494,30 +1512,33 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O5">
         <v>51</v>
       </c>
       <c r="Q5" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" t="b">
+        <v>50</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:18">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1541,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O6">
         <v>2</v>
@@ -1550,21 +1571,24 @@
         <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="R6">
+        <v>7500</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:18">
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -1588,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O7">
         <v>50</v>
@@ -1597,21 +1621,24 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="R7">
+        <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:18">
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1635,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O8">
         <v>50</v>
@@ -1644,21 +1671,24 @@
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="R8">
+        <v>30000</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:18">
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1682,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O9">
         <v>50</v>
@@ -1691,21 +1721,24 @@
         <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="R9">
+        <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:18">
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -1729,27 +1762,30 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O10">
         <v>50</v>
       </c>
       <c r="Q10" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="R10">
+        <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:18">
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -1773,27 +1809,30 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O11">
         <v>30</v>
       </c>
       <c r="Q11" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="R11">
+        <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:18">
       <c r="B12">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1817,27 +1856,30 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O12">
         <v>20</v>
       </c>
       <c r="Q12" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="R12">
+        <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:18">
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1861,13 +1903,16 @@
         <v>500</v>
       </c>
       <c r="M13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O13">
         <v>40</v>
       </c>
       <c r="Q13" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="R13">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Datas/card.xlsx
+++ b/Config/Datas/card.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -34,7 +34,7 @@
     <author>91080</author>
   </authors>
   <commentList>
-    <comment ref="O4" authorId="0">
+    <comment ref="P4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
   <si>
     <t>##var</t>
   </si>
@@ -104,6 +104,9 @@
     <t>tag</t>
   </si>
   <si>
+    <t>targettype</t>
+  </si>
+  <si>
     <t>icon</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
     <t>(set#sep=,),card.Tag</t>
   </si>
   <si>
+    <t>card.TargetType</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
@@ -188,6 +194,9 @@
     <t>标签</t>
   </si>
   <si>
+    <t>目标类型</t>
+  </si>
+  <si>
     <t>图标</t>
   </si>
   <si>
@@ -215,6 +224,12 @@
     <t>LIGHT</t>
   </si>
   <si>
+    <t>LIGHT,SELF</t>
+  </si>
+  <si>
+    <t>SELF</t>
+  </si>
+  <si>
     <t>什么都不做</t>
   </si>
   <si>
@@ -227,7 +242,7 @@
     <t>WATER</t>
   </si>
   <si>
-    <t>SUPPORT,WATER</t>
+    <t>SUPPORT,WATER,SELF</t>
   </si>
   <si>
     <t>自身/3回合/物理攻击提高7500</t>
@@ -236,7 +251,10 @@
     <t>冰剑斩击</t>
   </si>
   <si>
-    <t>PATTACK,WATER</t>
+    <t>PATTACK,WATER,SE</t>
+  </si>
+  <si>
+    <t>SE</t>
   </si>
   <si>
     <t>敌方/单体/物理/5000点水属性伤害,如果目标为火属性，追加一次伤害</t>
@@ -245,6 +263,12 @@
     <t>冰寒终末</t>
   </si>
   <si>
+    <t>PATTACK,WATER,AE</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
     <t>敌方/全体/物理/30000点水属性伤害</t>
   </si>
   <si>
@@ -260,7 +284,7 @@
     <t>EARTH</t>
   </si>
   <si>
-    <t>PATTACK,EARTH</t>
+    <t>PATTACK,EARTH,SE</t>
   </si>
   <si>
     <t>敌方/单体/物理/5000点地属性伤害</t>
@@ -269,7 +293,10 @@
     <t>GUARD</t>
   </si>
   <si>
-    <t>PDEFENSE,EARTH</t>
+    <t>PDEFENSE,EARTH,AT</t>
+  </si>
+  <si>
+    <t>AT</t>
   </si>
   <si>
     <t>己方/全体/2回合/物理防御增加3000,抽卡+1</t>
@@ -278,7 +305,7 @@
     <t>BLOCKER</t>
   </si>
   <si>
-    <t>PBLOCK,EARTH</t>
+    <t>PBLOCK,EARTH,SE</t>
   </si>
   <si>
     <t>敌方/单体/2回合/物理攻击降低2000,物理防御降低2000</t>
@@ -287,7 +314,7 @@
     <t>SUPPORT</t>
   </si>
   <si>
-    <t>HEAL,EARTH</t>
+    <t>HEAL,EARTH,AT</t>
   </si>
   <si>
     <t>己方/全体/回复3000点生命值</t>
@@ -975,6 +1002,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1227,10 +1261,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1238,12 +1272,13 @@
     <col min="3" max="3" width="11.8181818181818" customWidth="1"/>
     <col min="4" max="5" width="16.2727272727273" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
-    <col min="16" max="16" width="10.6363636363636" customWidth="1"/>
-    <col min="17" max="17" width="70.2727272727273" customWidth="1"/>
-    <col min="18" max="19" width="14" customWidth="1"/>
+    <col min="14" max="14" width="17.3636363636364" customWidth="1"/>
+    <col min="17" max="17" width="10.6363636363636" customWidth="1"/>
+    <col min="18" max="18" width="70.2727272727273" customWidth="1"/>
+    <col min="19" max="20" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1301,194 +1336,206 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S2" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="T2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="T3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="T4" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:20">
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1512,33 +1559,36 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5">
+        <v>53</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5">
         <v>51</v>
       </c>
-      <c r="Q5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5" t="b">
+      <c r="R5" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:19">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1562,33 +1612,36 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" t="s">
         <v>54</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2</v>
       </c>
-      <c r="P6" t="b">
+      <c r="Q6" t="b">
         <v>1</v>
       </c>
-      <c r="Q6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6">
+      <c r="R6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6">
         <v>7500</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:19">
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -1612,33 +1665,36 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7">
+        <v>62</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7">
         <v>50</v>
       </c>
-      <c r="P7" t="b">
+      <c r="Q7" t="b">
         <v>1</v>
       </c>
-      <c r="Q7" t="s">
-        <v>58</v>
-      </c>
-      <c r="R7">
+      <c r="R7" t="s">
+        <v>64</v>
+      </c>
+      <c r="S7">
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:19">
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1662,33 +1718,36 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>57</v>
-      </c>
-      <c r="O8">
+        <v>66</v>
+      </c>
+      <c r="N8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8">
         <v>50</v>
       </c>
-      <c r="P8" t="b">
+      <c r="Q8" t="b">
         <v>1</v>
       </c>
-      <c r="Q8" t="s">
-        <v>60</v>
-      </c>
-      <c r="R8">
+      <c r="R8" t="s">
+        <v>68</v>
+      </c>
+      <c r="S8">
         <v>30000</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:19">
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1712,33 +1771,36 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>57</v>
-      </c>
-      <c r="O9">
+        <v>62</v>
+      </c>
+      <c r="N9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9">
         <v>50</v>
       </c>
-      <c r="P9" t="b">
+      <c r="Q9" t="b">
         <v>1</v>
       </c>
-      <c r="Q9" t="s">
-        <v>62</v>
-      </c>
-      <c r="R9">
+      <c r="R9" t="s">
+        <v>70</v>
+      </c>
+      <c r="S9">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:19">
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -1762,30 +1824,33 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10">
+        <v>73</v>
+      </c>
+      <c r="N10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10">
         <v>50</v>
       </c>
-      <c r="Q10" t="s">
-        <v>66</v>
-      </c>
-      <c r="R10">
+      <c r="R10" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10">
         <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:19">
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -1809,30 +1874,33 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11">
+        <v>76</v>
+      </c>
+      <c r="N11" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11">
         <v>30</v>
       </c>
-      <c r="Q11" t="s">
-        <v>69</v>
-      </c>
-      <c r="R11">
+      <c r="R11" t="s">
+        <v>78</v>
+      </c>
+      <c r="S11">
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:19">
       <c r="B12">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1856,30 +1924,33 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>71</v>
-      </c>
-      <c r="O12">
+        <v>80</v>
+      </c>
+      <c r="N12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12">
         <v>20</v>
       </c>
-      <c r="Q12" t="s">
-        <v>72</v>
-      </c>
-      <c r="R12">
+      <c r="R12" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:19">
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1903,15 +1974,18 @@
         <v>500</v>
       </c>
       <c r="M13" t="s">
-        <v>74</v>
-      </c>
-      <c r="O13">
+        <v>83</v>
+      </c>
+      <c r="N13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13">
         <v>40</v>
       </c>
-      <c r="Q13" t="s">
-        <v>75</v>
-      </c>
-      <c r="R13">
+      <c r="R13" t="s">
+        <v>84</v>
+      </c>
+      <c r="S13">
         <v>3000</v>
       </c>
     </row>

--- a/Config/Datas/card.xlsx
+++ b/Config/Datas/card.xlsx
@@ -209,7 +209,7 @@
     <t>描述</t>
   </si>
   <si>
-    <t>数值（仅展示）</t>
+    <t>数值</t>
   </si>
   <si>
     <t>在图鉴中隐藏</t>
@@ -1263,8 +1263,8 @@
   <sheetPr/>
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Config/Datas/card.xlsx
+++ b/Config/Datas/card.xlsx
@@ -44,12 +44,12 @@
           </rPr>
           <t xml:space="preserve">留空的优先级用于特殊处理，自由发挥即可
 1:解封
-2:纯支援
-3:支援带防御
-4:支援带治疗
-5:支援-根据防御治疗
-6:支援-根据血量防御
-9:嘲讽
+5:纯支援
+10:支援带防御
+13:支援带治疗
+15:支援-根据防御治疗
+17:支援-根据血量防御
+19:嘲讽
 20:妨害
 30:防御
 40:治疗
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
   <si>
     <t>##var</t>
   </si>
@@ -263,13 +263,13 @@
     <t>冰寒终末</t>
   </si>
   <si>
-    <t>PATTACK,WATER,AE</t>
+    <t>PATTACK,WATER,AE,NGUARD</t>
   </si>
   <si>
     <t>AE</t>
   </si>
   <si>
-    <t>敌方/全体/物理/30000点水属性伤害</t>
+    <t>敌方/全体/物理/30000点水属性伤害，无视防御</t>
   </si>
   <si>
     <t>凝散</t>
@@ -299,7 +299,7 @@
     <t>AT</t>
   </si>
   <si>
-    <t>己方/全体/2回合/物理防御增加3000,抽卡+1</t>
+    <t>己方/全体/2回合/物理防御提高3000,抽卡+1</t>
   </si>
   <si>
     <t>BLOCKER</t>
@@ -318,6 +318,75 @@
   </si>
   <si>
     <t>己方/全体/回复3000点生命值</t>
+  </si>
+  <si>
+    <t>灵舞</t>
+  </si>
+  <si>
+    <t>PATTACK,LIGHT,ST</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>己方/单体/3回合/物理攻击提高6000</t>
+  </si>
+  <si>
+    <t>天轮</t>
+  </si>
+  <si>
+    <t>HEALUP,LIGHT,SELF,SUPPORT</t>
+  </si>
+  <si>
+    <t>自身/2回合/回复量提高2000</t>
+  </si>
+  <si>
+    <t>曙光</t>
+  </si>
+  <si>
+    <t>HEAL,LIGHT,SUPPORT,AT</t>
+  </si>
+  <si>
+    <t>己方/全体/回复4000点生命值</t>
+  </si>
+  <si>
+    <t>喜还</t>
+  </si>
+  <si>
+    <t>HEAL,LIGHT,SUPPORT,ST</t>
+  </si>
+  <si>
+    <t>己方/单体/回复10000点生命值</t>
+  </si>
+  <si>
+    <t>对阵战线</t>
+  </si>
+  <si>
+    <t>TAUNT,GUARD,SELF,MAXHEALTH</t>
+  </si>
+  <si>
+    <t>自身/3回合/嘲讽，生命上限提高15000</t>
+  </si>
+  <si>
+    <t>魔力拒止</t>
+  </si>
+  <si>
+    <t>MDEFENSE,EARTH,AT</t>
+  </si>
+  <si>
+    <t>己方/全体/3回合/魔法防御提高2000,抽卡+1</t>
+  </si>
+  <si>
+    <t>己方/全体/3回合/物理防御提高2000+5%生命上限</t>
+  </si>
+  <si>
+    <t>最后通牒</t>
+  </si>
+  <si>
+    <t>PATTACK,EARTH,AE</t>
+  </si>
+  <si>
+    <t>敌方/全体/物理/20000点物理属性伤害，每1连携增加5000伤害</t>
   </si>
 </sst>
 </file>
@@ -1002,13 +1071,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1261,10 +1323,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1618,7 +1680,7 @@
         <v>54</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="b">
         <v>1</v>
@@ -1987,6 +2049,428 @@
       </c>
       <c r="S13">
         <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2000</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1000</v>
+      </c>
+      <c r="M14" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>88</v>
+      </c>
+      <c r="S14">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4000</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>90</v>
+      </c>
+      <c r="N15" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>91</v>
+      </c>
+      <c r="S15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2500</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>750</v>
+      </c>
+      <c r="M16" t="s">
+        <v>93</v>
+      </c>
+      <c r="N16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16">
+        <v>40</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>94</v>
+      </c>
+      <c r="S16">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19">
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2000</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1000</v>
+      </c>
+      <c r="M17" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17">
+        <v>40</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>97</v>
+      </c>
+      <c r="S17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19">
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>4000</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18">
+        <v>19</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>100</v>
+      </c>
+      <c r="S18">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19">
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2000</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>2000</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19">
+        <v>30</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>103</v>
+      </c>
+      <c r="S19">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19">
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>4000</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20">
+        <v>49</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>104</v>
+      </c>
+      <c r="S20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>4000</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>106</v>
+      </c>
+      <c r="N21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21">
+        <v>50</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
+        <v>107</v>
+      </c>
+      <c r="S21">
+        <v>30000</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Datas/card.xlsx
+++ b/Config/Datas/card.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
   <si>
     <t>##var</t>
   </si>
@@ -365,7 +365,7 @@
     <t>TAUNT,GUARD,SELF,MAXHEALTH</t>
   </si>
   <si>
-    <t>自身/3回合/嘲讽，生命上限提高15000</t>
+    <t>自身/3回合/嘲讽:2，生命上限提高15000</t>
   </si>
   <si>
     <t>魔力拒止</t>
@@ -377,7 +377,10 @@
     <t>己方/全体/3回合/魔法防御提高2000,抽卡+1</t>
   </si>
   <si>
-    <t>己方/全体/3回合/物理防御提高2000+5%生命上限</t>
+    <t>强化武装</t>
+  </si>
+  <si>
+    <t>己方/全体/3回合/物理防御提高2000+5%当前自身的生命上限</t>
   </si>
   <si>
     <t>最后通牒</t>
@@ -1326,7 +1329,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2373,7 +2376,9 @@
       <c r="B20">
         <v>15</v>
       </c>
-      <c r="C20"/>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
       <c r="D20" t="s">
         <v>75</v>
       </c>
@@ -2414,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="R20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S20">
         <v>2000</v>
@@ -2425,7 +2430,7 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
         <v>75</v>
@@ -2455,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N21" t="s">
         <v>67</v>
@@ -2467,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S21">
         <v>30000</v>
